--- a/计算结果.xlsx
+++ b/计算结果.xlsx
@@ -22371,7 +22371,7 @@
       </c>
       <c r="G717" t="inlineStr">
         <is>
-          <t>转加班费</t>
+          <t>转串休</t>
         </is>
       </c>
       <c r="H717" t="n">
@@ -22566,7 +22566,7 @@
       </c>
       <c r="G723" t="inlineStr">
         <is>
-          <t>转串休</t>
+          <t>转加班费</t>
         </is>
       </c>
       <c r="H723" t="n">
@@ -22950,7 +22950,7 @@
       </c>
       <c r="G737" t="inlineStr">
         <is>
-          <t>转加班费</t>
+          <t>转串休</t>
         </is>
       </c>
       <c r="H737" t="n">
@@ -23183,7 +23183,7 @@
       </c>
       <c r="G745" t="inlineStr">
         <is>
-          <t>转串休</t>
+          <t>转加班费</t>
         </is>
       </c>
       <c r="H745" t="n">
@@ -23324,7 +23324,7 @@
       </c>
       <c r="G753" t="inlineStr">
         <is>
-          <t>转加班费</t>
+          <t>转串休</t>
         </is>
       </c>
       <c r="H753" t="n">
@@ -23360,7 +23360,7 @@
       </c>
       <c r="G754" t="inlineStr">
         <is>
-          <t>转加班费</t>
+          <t>转串休</t>
         </is>
       </c>
       <c r="H754" t="n">
@@ -23519,7 +23519,7 @@
       </c>
       <c r="G759" t="inlineStr">
         <is>
-          <t>转加班费</t>
+          <t>转串休</t>
         </is>
       </c>
       <c r="H759" t="n">
@@ -23589,7 +23589,7 @@
       </c>
       <c r="G762" t="inlineStr">
         <is>
-          <t>转加班费</t>
+          <t>转串休</t>
         </is>
       </c>
       <c r="H762" t="n">
@@ -23676,7 +23676,7 @@
       </c>
       <c r="G765" t="inlineStr">
         <is>
-          <t>转加班费</t>
+          <t>转串休</t>
         </is>
       </c>
       <c r="H765" t="n">
@@ -23712,7 +23712,7 @@
       </c>
       <c r="G766" t="inlineStr">
         <is>
-          <t>转加班费</t>
+          <t>转串休</t>
         </is>
       </c>
       <c r="H766" t="n">
@@ -23784,7 +23784,7 @@
       </c>
       <c r="G768" t="inlineStr">
         <is>
-          <t>转串休</t>
+          <t>转加班费</t>
         </is>
       </c>
       <c r="H768" t="n">
@@ -23820,7 +23820,7 @@
       </c>
       <c r="G769" t="inlineStr">
         <is>
-          <t>转串休</t>
+          <t>转加班费</t>
         </is>
       </c>
       <c r="H769" t="n">
@@ -23979,7 +23979,7 @@
       </c>
       <c r="G774" t="inlineStr">
         <is>
-          <t>转串休</t>
+          <t>转加班费</t>
         </is>
       </c>
       <c r="H774" t="n">
@@ -24051,7 +24051,7 @@
       </c>
       <c r="G776" t="inlineStr">
         <is>
-          <t>转串休</t>
+          <t>转加班费</t>
         </is>
       </c>
       <c r="H776" t="n">
@@ -33452,7 +33452,7 @@
         <v>1.2</v>
       </c>
       <c r="AH6" s="20" t="n">
-        <v>48.25999999999999</v>
+        <v>48.26</v>
       </c>
       <c r="AI6" s="40" t="n">
         <v>12.26</v>
@@ -33661,7 +33661,7 @@
         <v>0.87</v>
       </c>
       <c r="AH9" s="20" t="n">
-        <v>38.71999999999999</v>
+        <v>38.72</v>
       </c>
       <c r="AI9" s="40" t="n">
         <v>2.73</v>
@@ -33752,7 +33752,7 @@
         <v>3.2</v>
       </c>
       <c r="AH10" s="20" t="n">
-        <v>64.38000000000001</v>
+        <v>64.38</v>
       </c>
       <c r="AI10" s="40" t="n">
         <v>28.4</v>
@@ -33843,7 +33843,7 @@
         <v>2.38</v>
       </c>
       <c r="AH11" s="20" t="n">
-        <v>75.11999999999999</v>
+        <v>75.12</v>
       </c>
       <c r="AI11" s="40" t="n">
         <v>39.37</v>
@@ -33930,7 +33930,7 @@
         <v>1.6</v>
       </c>
       <c r="AH12" s="20" t="n">
-        <v>44.93000000000001</v>
+        <v>44.93</v>
       </c>
       <c r="AI12" s="40" t="n">
         <v>8.93</v>
@@ -34021,7 +34021,7 @@
         <v>1.73</v>
       </c>
       <c r="AH13" s="20" t="n">
-        <v>53.58999999999999</v>
+        <v>53.59</v>
       </c>
       <c r="AI13" s="40" t="n">
         <v>17.59</v>
@@ -34386,7 +34386,7 @@
         <v>0.97</v>
       </c>
       <c r="AH18" s="20" t="n">
-        <v>43.97000000000001</v>
+        <v>43.97</v>
       </c>
       <c r="AI18" s="40" t="n">
         <v>7.97</v>
@@ -34544,7 +34544,7 @@
         <v>1.12</v>
       </c>
       <c r="AH20" s="20" t="n">
-        <v>45.40000000000001</v>
+        <v>45.4</v>
       </c>
       <c r="AI20" s="40" t="n">
         <v>9.4</v>
@@ -34913,7 +34913,7 @@
       <c r="AF25" s="20" t="n"/>
       <c r="AG25" s="20" t="n"/>
       <c r="AH25" s="20" t="n">
-        <v>48.91999999999999</v>
+        <v>48.92</v>
       </c>
       <c r="AI25" s="40" t="n">
         <v>12.92</v>
@@ -35087,7 +35087,7 @@
         <v>3.2</v>
       </c>
       <c r="AH27" s="20" t="n">
-        <v>59.17000000000001</v>
+        <v>59.17</v>
       </c>
       <c r="AI27" s="40" t="n">
         <v>23.17</v>
@@ -35606,7 +35606,7 @@
       <c r="AF34" s="20" t="n"/>
       <c r="AG34" s="20" t="n"/>
       <c r="AH34" s="20" t="n">
-        <v>43.96999999999999</v>
+        <v>43.97</v>
       </c>
       <c r="AI34" s="40" t="n">
         <v>8.08</v>
@@ -35874,8 +35874,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="C1:AH1"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:AH1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
